--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/ILLINOIS_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/ILLINOIS_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1853"/>
+  <dimension ref="A1:D1847"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C34">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C38">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C45">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C50">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C68">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C74">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C82">
@@ -1894,7 +1894,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C116">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C123">
@@ -2024,7 +2024,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C126">
@@ -2232,7 +2232,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C142">
@@ -2245,7 +2245,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C143">
@@ -2258,7 +2258,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C144">
@@ -2310,7 +2310,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C148">
@@ -2588,7 +2588,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C169">
@@ -2775,7 +2775,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C183">
@@ -2801,7 +2801,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2858,7 +2858,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C189">
@@ -3058,7 +3058,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C204">
@@ -3240,7 +3240,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C218">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C222">
@@ -3383,7 +3383,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C229">
@@ -3396,7 +3396,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C230">
@@ -3409,7 +3409,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C231">
@@ -3422,7 +3422,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C232">
@@ -3552,12 +3552,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C242">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C245">
@@ -3609,7 +3609,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C246">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C247">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C254">
@@ -3798,13 +3798,13 @@
         <v>63</v>
       </c>
       <c r="D260">
-        <v>0.0009401301259475915</v>
+        <v>0.0009401301259475916</v>
       </c>
     </row>
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C261">
@@ -3869,7 +3869,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C266">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C273">
@@ -4051,7 +4051,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C280">
@@ -4064,7 +4064,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C281">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C297">
@@ -4441,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C310">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C311">
@@ -4467,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C312">
@@ -4493,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C314">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C316">
@@ -4636,7 +4636,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C325">
@@ -4649,7 +4649,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C326">
@@ -4831,7 +4831,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C340">
@@ -4909,7 +4909,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C346">
@@ -4922,7 +4922,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C347">
@@ -4935,7 +4935,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C348">
@@ -4948,7 +4948,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C349">
@@ -5122,7 +5122,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C362">
@@ -5135,7 +5135,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C363">
@@ -5148,7 +5148,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C364">
@@ -5252,7 +5252,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C372">
@@ -5304,7 +5304,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C376">
@@ -5408,7 +5408,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C384">
@@ -5460,7 +5460,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C388">
@@ -5486,7 +5486,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C390">
@@ -5512,7 +5512,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C392">
@@ -5538,7 +5538,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C394">
@@ -5564,7 +5564,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C396">
@@ -5629,7 +5629,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C401">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C407">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C410">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C411">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C415">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C416">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C418">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C419">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C422">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C423">
@@ -5933,7 +5933,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C424">
@@ -5946,7 +5946,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C425">
@@ -6011,7 +6011,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C430">
@@ -6024,7 +6024,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C431">
@@ -6076,7 +6076,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C435">
@@ -6089,7 +6089,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C436">
@@ -6167,7 +6167,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C442">
@@ -6180,7 +6180,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C443">
@@ -6206,7 +6206,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C445">
@@ -6219,7 +6219,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C446">
@@ -6245,7 +6245,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C448">
@@ -6284,7 +6284,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C451">
@@ -6453,7 +6453,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C464">
@@ -6479,7 +6479,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C466">
@@ -6505,7 +6505,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C468">
@@ -6531,7 +6531,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C470">
@@ -6583,7 +6583,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C474">
@@ -6596,7 +6596,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C475">
@@ -6757,7 +6757,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C487">
@@ -6835,7 +6835,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C493">
@@ -6848,7 +6848,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C494">
@@ -6926,7 +6926,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C500">
@@ -7004,7 +7004,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C506">
@@ -7043,7 +7043,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C509">
@@ -7082,7 +7082,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C512">
@@ -7147,7 +7147,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C517">
@@ -7160,7 +7160,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C518">
@@ -7173,7 +7173,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C519">
@@ -7186,7 +7186,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C520">
@@ -7212,7 +7212,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C522">
@@ -7225,7 +7225,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C523">
@@ -7238,7 +7238,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C524">
@@ -7277,7 +7277,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C527">
@@ -7342,7 +7342,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C532">
@@ -7355,7 +7355,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C533">
@@ -7407,7 +7407,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C537">
@@ -7433,7 +7433,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C539">
@@ -7446,7 +7446,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C540">
@@ -7485,7 +7485,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C543">
@@ -7589,7 +7589,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C551">
@@ -7602,7 +7602,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C552">
@@ -7615,7 +7615,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C553">
@@ -7667,7 +7667,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C557">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C562">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C563">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C567">
@@ -7841,7 +7841,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C570">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C572">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C578">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C585">
@@ -8049,7 +8049,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C586">
@@ -8166,7 +8166,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C595">
@@ -8257,7 +8257,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C602">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C603">
@@ -8283,7 +8283,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C604">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C608">
@@ -8413,7 +8413,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C614">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C615">
@@ -8530,7 +8530,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C623">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C628">
@@ -8608,7 +8608,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C629">
@@ -8634,7 +8634,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C631">
@@ -8647,7 +8647,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C632">
@@ -8686,7 +8686,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C635">
@@ -8712,7 +8712,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C637">
@@ -8725,7 +8725,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C638">
@@ -8738,7 +8738,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C639">
@@ -8751,7 +8751,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C640">
@@ -8790,7 +8790,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C643">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C644">
@@ -8842,7 +8842,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C647">
@@ -8881,7 +8881,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C650">
@@ -8894,7 +8894,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C651">
@@ -8933,7 +8933,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C654">
@@ -8946,7 +8946,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C655">
@@ -9089,7 +9089,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C666">
@@ -9102,7 +9102,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C667">
@@ -9115,7 +9115,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C668">
@@ -9128,7 +9128,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C669">
@@ -9193,7 +9193,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C674">
@@ -9206,7 +9206,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C675">
@@ -9245,7 +9245,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C678">
@@ -9258,7 +9258,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C679">
@@ -9271,7 +9271,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C680">
@@ -9627,7 +9627,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C707">
@@ -10498,7 +10498,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C774">
@@ -10841,7 +10841,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C800">
@@ -10945,7 +10945,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C808">
@@ -10997,7 +10997,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C812">
@@ -11075,7 +11075,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C818">
@@ -11101,7 +11101,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C820">
@@ -11205,7 +11205,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C828">
@@ -11262,7 +11262,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C832">
@@ -11275,7 +11275,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C833">
@@ -11314,7 +11314,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C836">
@@ -11405,7 +11405,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C843">
@@ -11592,7 +11592,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C857">
@@ -11748,7 +11748,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C869">
@@ -11813,7 +11813,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C874">
@@ -11891,7 +11891,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C880">
@@ -11987,7 +11987,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C887">
@@ -12065,7 +12065,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C893">
@@ -12104,7 +12104,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C896">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C897">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C900">
@@ -12182,7 +12182,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C902">
@@ -12221,7 +12221,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C905">
@@ -12234,7 +12234,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C906">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C908">
@@ -12273,7 +12273,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C909">
@@ -12286,7 +12286,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C910">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C911">
@@ -12325,7 +12325,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C913">
@@ -12338,7 +12338,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C914">
@@ -12481,7 +12481,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C925">
@@ -12494,7 +12494,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C926">
@@ -12520,7 +12520,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C928">
@@ -12546,7 +12546,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C930">
@@ -12598,7 +12598,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C934">
@@ -12624,7 +12624,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C936">
@@ -12637,7 +12637,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C937">
@@ -12650,7 +12650,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C938">
@@ -12676,7 +12676,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C940">
@@ -12689,7 +12689,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C941">
@@ -12702,7 +12702,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C942">
@@ -13001,7 +13001,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C965">
@@ -13092,7 +13092,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C972">
@@ -13287,7 +13287,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C987">
@@ -13391,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C995">
@@ -13534,7 +13534,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1006">
@@ -14119,7 +14119,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1051">
@@ -14262,7 +14262,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1062">
@@ -14327,7 +14327,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1067">
@@ -14574,7 +14574,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1086">
@@ -14847,7 +14847,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1107">
@@ -14899,7 +14899,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1111">
@@ -15029,7 +15029,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1121">
@@ -15094,7 +15094,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1126">
@@ -15679,7 +15679,7 @@
     <row r="1171">
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1171">
@@ -15874,7 +15874,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1186">
@@ -15887,7 +15887,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1187">
@@ -15900,7 +15900,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1188">
@@ -15913,7 +15913,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1189">
@@ -15926,7 +15926,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1190">
@@ -15939,7 +15939,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1191">
@@ -15952,7 +15952,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1192">
@@ -15965,7 +15965,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1193">
@@ -16017,7 +16017,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1197">
@@ -16030,7 +16030,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1198">
@@ -16043,7 +16043,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1199">
@@ -16056,7 +16056,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1200">
@@ -16095,7 +16095,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1203">
@@ -16108,7 +16108,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1204">
@@ -16134,7 +16134,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1206">
@@ -16173,7 +16173,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1209">
@@ -16451,7 +16451,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1230">
@@ -16503,7 +16503,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1234">
@@ -16633,7 +16633,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1244">
@@ -16815,7 +16815,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1258">
@@ -16828,7 +16828,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1259">
@@ -16997,7 +16997,7 @@
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1272">
@@ -17010,7 +17010,7 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1273">
@@ -17062,7 +17062,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1277">
@@ -17101,7 +17101,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1280">
@@ -17218,7 +17218,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1289">
@@ -17231,7 +17231,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1290">
@@ -17387,7 +17387,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1302">
@@ -17647,7 +17647,7 @@
     <row r="1322">
       <c r="B1322" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1322">
@@ -17699,7 +17699,7 @@
     <row r="1326">
       <c r="B1326" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1326">
@@ -17712,7 +17712,7 @@
     <row r="1327">
       <c r="B1327" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1327">
@@ -17777,7 +17777,7 @@
     <row r="1332">
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1332">
@@ -17868,7 +17868,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1339">
@@ -17881,7 +17881,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1340">
@@ -17894,7 +17894,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1341">
@@ -17959,7 +17959,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1346">
@@ -17985,7 +17985,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1348">
@@ -17998,7 +17998,7 @@
     <row r="1349">
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1349">
@@ -18063,7 +18063,7 @@
     <row r="1354">
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1354">
@@ -18271,7 +18271,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1370">
@@ -18510,7 +18510,7 @@
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1388">
@@ -18536,7 +18536,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1390">
@@ -18614,7 +18614,7 @@
     <row r="1396">
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1396">
@@ -18627,7 +18627,7 @@
     <row r="1397">
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1397">
@@ -18666,7 +18666,7 @@
     <row r="1400">
       <c r="B1400" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1400">
@@ -18705,7 +18705,7 @@
     <row r="1403">
       <c r="B1403" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1403">
@@ -18871,7 +18871,7 @@
     <row r="1415">
       <c r="B1415" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1415">
@@ -18949,7 +18949,7 @@
     <row r="1421">
       <c r="B1421" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1421">
@@ -19066,7 +19066,7 @@
     <row r="1430">
       <c r="B1430" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1430">
@@ -19144,7 +19144,7 @@
     <row r="1436">
       <c r="B1436" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1436">
@@ -19196,7 +19196,7 @@
     <row r="1440">
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1440">
@@ -19222,7 +19222,7 @@
     <row r="1442">
       <c r="B1442" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1442">
@@ -19300,7 +19300,7 @@
     <row r="1448">
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1448">
@@ -19352,7 +19352,7 @@
     <row r="1452">
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1452">
@@ -19365,7 +19365,7 @@
     <row r="1453">
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1453">
@@ -19378,7 +19378,7 @@
     <row r="1454">
       <c r="B1454" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1454">
@@ -19391,7 +19391,7 @@
     <row r="1455">
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1455">
@@ -19404,7 +19404,7 @@
     <row r="1456">
       <c r="B1456" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1456">
@@ -19908,7 +19908,7 @@
     <row r="1494">
       <c r="B1494" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1494">
@@ -20095,7 +20095,7 @@
     <row r="1508">
       <c r="B1508" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1508">
@@ -20367,7 +20367,7 @@
         <v>63</v>
       </c>
       <c r="D1528">
-        <v>0.0009401301259475915</v>
+        <v>0.0009401301259475916</v>
       </c>
     </row>
     <row r="1529">
@@ -20503,7 +20503,7 @@
     <row r="1539">
       <c r="B1539" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1539">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1547">
@@ -20638,7 +20638,7 @@
     <row r="1549">
       <c r="B1549" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1549">
@@ -20651,7 +20651,7 @@
     <row r="1550">
       <c r="B1550" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1550">
@@ -20716,7 +20716,7 @@
     <row r="1555">
       <c r="B1555" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1555">
@@ -20807,7 +20807,7 @@
     <row r="1562">
       <c r="B1562" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1562">
@@ -20846,7 +20846,7 @@
     <row r="1565">
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1565">
@@ -20885,7 +20885,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1568">
@@ -20924,7 +20924,7 @@
     <row r="1571">
       <c r="B1571" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1571">
@@ -21002,7 +21002,7 @@
     <row r="1577">
       <c r="B1577" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1577">
@@ -21041,7 +21041,7 @@
     <row r="1580">
       <c r="B1580" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1580">
@@ -21306,7 +21306,7 @@
     <row r="1600">
       <c r="B1600" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1600">
@@ -21358,7 +21358,7 @@
     <row r="1604">
       <c r="B1604" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1604">
@@ -21514,7 +21514,7 @@
     <row r="1616">
       <c r="B1616" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1616">
@@ -21540,7 +21540,7 @@
     <row r="1618">
       <c r="B1618" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1618">
@@ -21592,7 +21592,7 @@
     <row r="1622">
       <c r="B1622" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1622">
@@ -21618,7 +21618,7 @@
     <row r="1624">
       <c r="B1624" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1624">
@@ -21696,7 +21696,7 @@
     <row r="1630">
       <c r="B1630" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1630">
@@ -21865,7 +21865,7 @@
     <row r="1643">
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1643">
@@ -21878,7 +21878,7 @@
     <row r="1644">
       <c r="B1644" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1644">
@@ -22086,7 +22086,7 @@
     <row r="1660">
       <c r="B1660" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1660">
@@ -22099,7 +22099,7 @@
     <row r="1661">
       <c r="B1661" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1661">
@@ -22112,7 +22112,7 @@
     <row r="1662">
       <c r="B1662" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1662">
@@ -22138,7 +22138,7 @@
     <row r="1664">
       <c r="B1664" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1664">
@@ -22151,7 +22151,7 @@
     <row r="1665">
       <c r="B1665" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1665">
@@ -22164,7 +22164,7 @@
     <row r="1666">
       <c r="B1666" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1666">
@@ -22177,7 +22177,7 @@
     <row r="1667">
       <c r="B1667" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1667">
@@ -22320,7 +22320,7 @@
     <row r="1678">
       <c r="B1678" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1678">
@@ -22359,7 +22359,7 @@
     <row r="1681">
       <c r="B1681" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1681">
@@ -22398,7 +22398,7 @@
     <row r="1684">
       <c r="B1684" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1684">
@@ -22411,7 +22411,7 @@
     <row r="1685">
       <c r="B1685" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1685">
@@ -22450,7 +22450,7 @@
     <row r="1688">
       <c r="B1688" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1688">
@@ -22476,7 +22476,7 @@
     <row r="1690">
       <c r="B1690" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1690">
@@ -22528,7 +22528,7 @@
     <row r="1694">
       <c r="B1694" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1694">
@@ -22554,7 +22554,7 @@
     <row r="1696">
       <c r="B1696" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1696">
@@ -22697,7 +22697,7 @@
     <row r="1707">
       <c r="B1707" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1707">
@@ -22736,7 +22736,7 @@
     <row r="1710">
       <c r="B1710" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1710">
@@ -22749,7 +22749,7 @@
     <row r="1711">
       <c r="B1711" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1711">
@@ -22801,7 +22801,7 @@
     <row r="1715">
       <c r="B1715" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1715">
@@ -22931,7 +22931,7 @@
     <row r="1725">
       <c r="B1725" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1725">
@@ -22957,7 +22957,7 @@
     <row r="1727">
       <c r="B1727" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1727">
@@ -23256,7 +23256,7 @@
     <row r="1750">
       <c r="B1750" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1750">
@@ -23438,7 +23438,7 @@
     <row r="1764">
       <c r="B1764" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1764">
@@ -23555,7 +23555,7 @@
     <row r="1773">
       <c r="B1773" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1773">
@@ -23568,7 +23568,7 @@
     <row r="1774">
       <c r="B1774" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1774">
@@ -23851,7 +23851,7 @@
     <row r="1795">
       <c r="B1795" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1795">
@@ -23877,7 +23877,7 @@
     <row r="1797">
       <c r="B1797" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1797">
@@ -23903,7 +23903,7 @@
     <row r="1799">
       <c r="B1799" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1799">
@@ -24033,7 +24033,7 @@
     <row r="1809">
       <c r="B1809" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1809">
@@ -24124,7 +24124,7 @@
     <row r="1816">
       <c r="B1816" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1816">
@@ -24189,7 +24189,7 @@
     <row r="1821">
       <c r="B1821" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1821">
@@ -24202,7 +24202,7 @@
     <row r="1822">
       <c r="B1822" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1822">
@@ -24215,7 +24215,7 @@
     <row r="1823">
       <c r="B1823" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1823">
@@ -24358,7 +24358,7 @@
     <row r="1834">
       <c r="B1834" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1834">
@@ -24371,7 +24371,7 @@
     <row r="1835">
       <c r="B1835" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1835">
@@ -24397,7 +24397,7 @@
     <row r="1837">
       <c r="B1837" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1837">
@@ -24436,7 +24436,7 @@
     <row r="1840">
       <c r="B1840" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1840">
@@ -24535,41 +24535,6 @@
       </c>
       <c r="D1847">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1849">
-      <c r="A1849" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1850">
-      <c r="A1850" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1851">
-      <c r="A1851" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1852">
-      <c r="A1852" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1853">
-      <c r="A1853" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
